--- a/2.07_Pflege_psychisch_Kranker.xlsx
+++ b/2.07_Pflege_psychisch_Kranker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RuellMag\Documents\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70B648A-C08B-426C-811D-0EEA0C2B4D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855E7B6E-AEDC-42E2-8B02-C18471B2164D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1440" windowWidth="17640" windowHeight="10560" xr2:uid="{7B11F82F-C939-3448-B023-7F0894FA6D65}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7B11F82F-C939-3448-B023-7F0894FA6D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Paulina" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Außenliegender Sonnenschutz</t>
   </si>
   <si>
-    <t>Anmerkungen</t>
-  </si>
-  <si>
     <t>2.07</t>
   </si>
   <si>
@@ -218,23 +215,6 @@
     <t>22-25</t>
   </si>
   <si>
-    <t>in der nähe von Dienstplatz</t>
-  </si>
-  <si>
-    <t>eigene Elektroverteilung</t>
-  </si>
-  <si>
-    <t>in der Nähe von  Personalaufenthaltsraum,
- große Glasöffnung zum Flur notwenidig</t>
-  </si>
-  <si>
-    <t>von Dienstplatz direkt erreichbar</t>
-  </si>
-  <si>
-    <t>Möglichst ohne überqueren der Flure
-erreichbar, für ca. 8 Betten</t>
-  </si>
-  <si>
     <t>Dienstraum/-platz</t>
   </si>
   <si>
@@ -256,44 +236,18 @@
     <t>Trennung reiner und unreiner Bereich</t>
   </si>
   <si>
-    <t>von Dienstplatz direkt erreichbar
-Kleine Station (50 Betten): 15-20 m2
-Mittlere Station (50-100 Betten): 25-40 m2
-Große Station (über 100 Betten): ab 50m2</t>
-  </si>
-  <si>
     <t>8 bis 30</t>
   </si>
   <si>
-    <t>Kleine Station (50 Betten): 8-12 m2
-Mittlere Station (50-100 Betten): 12-20 m2
-Große Station (über 100 Betten): 20-30 m2</t>
-  </si>
-  <si>
     <t>6 bis 25</t>
   </si>
   <si>
-    <t>Kleine Station (50 Betten): 6-8 m2
-Mittlere Station (50-100 Betten): 10-15 m2
-Große Station (über 100 Betten): 15-25 m2</t>
-  </si>
-  <si>
     <t>10 bis 30</t>
   </si>
   <si>
-    <t>Kleine Station (50 Betten): 10-15 m2
-Mittlere Station (50-100 Betten): 15-20 m2
-Große Station (über 100 Betten): 25-30 m2</t>
-  </si>
-  <si>
     <t>6 bis 20</t>
   </si>
   <si>
-    <t>Kleine Station (50 Betten): 6-10 m2
-Mittlere Station (50-100 Betten): 10-15 m2
-Große Station (über 100 Betten): 15-20 m2</t>
-  </si>
-  <si>
     <t>8 bis 10</t>
   </si>
   <si>
@@ -313,13 +267,19 @@
   </si>
   <si>
     <t>20-25</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,12 +325,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -463,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -518,17 +472,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -542,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -577,9 +520,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -587,7 +527,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,35 +554,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,6 +573,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,11 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197F20D0-436E-4AF1-BA55-80D600D9ED35}">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A26:AM193"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,41 +837,40 @@
     <col min="34" max="34" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="75" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="L1" s="7" t="s">
@@ -967,8 +888,8 @@
       <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>68</v>
+      <c r="Q1" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>32</v>
@@ -977,7 +898,7 @@
         <v>13</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>21</v>
@@ -986,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>35</v>
@@ -994,17 +915,17 @@
       <c r="Y1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="16" t="s">
         <v>19</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>33</v>
@@ -1027,69 +948,55 @@
       <c r="AJ1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:36" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
+      <c r="B2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
     </row>
-    <row r="2" spans="1:37" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="35"/>
-    </row>
-    <row r="3" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="10">
         <v>3.45</v>
@@ -1104,101 +1011,102 @@
         <v>10</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="39" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z3" s="39" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="Z3" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC3" s="38" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF3" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK3" s="33"/>
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="10">
         <v>3.45</v>
@@ -1213,2273 +1121,2403 @@
         <v>18</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB4" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC4" s="38" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI4" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK4" s="33"/>
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB5" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC5" s="38" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="AB5" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI5" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK5" s="33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="E6" s="10">
         <v>1.26</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="39" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB6" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC6" s="38" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="AB6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC6" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF6" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK6" s="33"/>
+        <v>63</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F7" s="10">
         <v>20</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" s="37"/>
+        <v>63</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="R7" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB7" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC7" s="38" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="AB7" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC7" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="AD7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI7" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK7" s="33"/>
+        <v>63</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="37"/>
+        <v>63</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="R8" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB8" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC8" s="38" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="AB8" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC8" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI8" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK8" s="33"/>
+        <v>63</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
+    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q9" s="37"/>
+        <v>63</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="R9" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB9" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC9" s="38" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="AB9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC9" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="AD9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK9" s="33"/>
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="G10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB10" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC10" s="38" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="AB10" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC10" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF10" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI10" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK10" s="33"/>
+        <v>63</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="G11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB11" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC11" s="40" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="AB11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC11" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF11" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK11" s="34"/>
+        <v>61</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="G12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB12" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC12" s="40" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="AB12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC12" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK12" s="34"/>
+        <v>61</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:36" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" s="6">
         <v>1.26</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB13" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC13" s="40" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="AB13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC13" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF13" s="31" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="AF13" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK13" s="34"/>
+        <v>61</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" ht="55.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="27" t="s">
-        <v>81</v>
+      <c r="C14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK14" s="29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F15" s="6">
         <v>16</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="G16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" s="5" t="s">
+      <c r="G17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB15" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC15" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF15" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK15" s="34" t="s">
-        <v>59</v>
+      <c r="G20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB20" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB16" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK16" s="34"/>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S21" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB21" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB17" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK17" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK18" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB19" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK19" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="27" t="s">
+    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB20" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK20" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S21" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="W21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB21" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK21" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
       <c r="B22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F22" s="6">
         <v>20</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S22" s="28" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AD22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK22" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
+    <row r="23" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F23" s="10">
         <v>8</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X23" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB23" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC23" s="38" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="AB23" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC23" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="AD23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF23" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI23" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK23" s="33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
+    <row r="24" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="E24" s="10">
         <v>1.26</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AC24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AD24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI24" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK24" s="33"/>
+        <v>63</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
+    <row r="25" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="B25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="E25" s="10">
         <v>1.26</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AB25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AD25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AF25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AI25" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK25" s="33"/>
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
